--- a/Tabla-transiciones.xlsx
+++ b/Tabla-transiciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maldo\Documents\Proyecto autómata finito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF456476-FB53-46B5-BBA8-6D4F88F52A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D9D9FD-ABCA-4B83-A38A-7AF4C9737E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31E8779B-FAD1-4856-AD08-F938E2B47623}"/>
   </bookViews>
@@ -34,30 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Entrada de estados</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
+    <t>digito</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>FDC</t>
   </si>
 </sst>
 </file>
@@ -135,11 +132,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -149,6 +143,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,98 +466,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5D5FAC-B6E1-4755-A8FF-C518BE9A7C66}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
